--- a/result/experiments/pca/tables.xlsx
+++ b/result/experiments/pca/tables.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -552,17 +552,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -589,32 +589,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52.32</t>
+          <t>52.31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.86</t>
+          <t>65.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.17</t>
+          <t>76.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -834,22 +834,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>25.10</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>74.91</t>
+          <t>74.90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1628,27 +1628,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29.21</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>23.64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>13.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29.21</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52.86</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.21</t>
+          <t>66.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.65</t>
+          <t>76.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>85.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>29.36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2254,27 +2254,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>29.36</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53.11</t>
+          <t>53.10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.37</t>
+          <t>66.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>76.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.53</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2833,27 +2833,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53.18</t>
+          <t>53.17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>66.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.80</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>85.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29.41</t>
+          <t>29.40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3412,22 +3412,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29.41</t>
+          <t>29.40</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53.22</t>
+          <t>53.21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.41</t>
+          <t>66.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>76.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>53.24</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.42</t>
+          <t>66.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>48.33</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>48.33</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.74</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
     </row>
